--- a/dist/isletme_ders_programi.xlsx
+++ b/dist/isletme_ders_programi.xlsx
@@ -44,184 +44,184 @@
     <t>Cuma</t>
   </si>
   <si>
-    <t>Derslik 208: Introduction to Business (Örgün + İ.Ö) [0. Sınıf] - Araş. Gör. Dr. Begüm KANAT TİRYAKİ
-Derslik 201: Örgüt Sosyolojisi [Yönetim Bilimi ve Organizasyon Tezli] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 104: Borçlar Hukuku [3. Sınıf] - Dr. Öğr. Üyesi Esin GÜRBÜZ
-Derslik 301: Human Resources Management [4. Sınıf] - Prof. Dr. Burak ÇAPRAZ
-Derslik 204: Tedarik Zinciri Yönetimi ve Lojistik [İşletme Tezli] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 303: Tüketici Davranışları [Pazarlama Tezli] - Prof. Dr. G. Nazan GÜNAY</t>
-  </si>
-  <si>
-    <t>Derslik 105: Üretim İşlemler Stratejisi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Prof. Dr. Haluk SOYUER
-Derslik 202: Enformetri [3. Sınıf] - Doç. Dr. Haydar YALÇIN
-Derslik 204: Yönetim Bilişim Sistemleri [Üretim Yönetimi ve Sayısal Yöntemler Tezli] - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 301: Business [1. Sınıf] - Dr. Öğr. Üyesi Miray BAYBARS
-Derslik 211: Örgütsel Davranış [İşletme Tezli] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 103: Financial Management I [3. Sınıf] - Prof. Dr. Dilek DEMİRHAN</t>
-  </si>
-  <si>
-    <t>Derslik 210: Pazarlama Kuramı [İşletme Doktora] - Prof. Dr. G. Nazan GÜNAY
-Derslik 111: Sosyoloji [1. Sınıf] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 105: Girişimcilik ve KOBİ Yönetimi [3. Sınıf] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
-Derslik 202: Organizational Behavior (Tek) [2. Sınıf] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 303: Management Consultancy [3. Sınıf] - Prof. Dr. Derya İLİC
-Derslik 208: Endüstriyel Pazarlama [İşletme Tezli] - Prof. Dr. İpek KAZANÇOĞLU
-Derslik 205: İleri Üretim Çizelgeleme [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 110: Stok Yönetimi [İşletme Tezli] - Doç. Dr. Aydın KOÇAK
-Derslik 301: Bilimsel Araştırma Yöntemleri ve Etik [Pazarlama Tezli] - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
-Derslik 205: Araştırma Yöntemleri (Çift) [3. Sınıf] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
-Derslik 103: Örgütsel Davranış [Yönetim Bilimi ve Organizasyon Tezli] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 201: Global Marketing (Tek) [4. Sınıf] - Prof. Dr. Aykan CANDEMİR
-Derslik 303: İnsan Kaynakları Yönetiminde Yeni Yaklaşımlar [Yönetim ve Organizasyon Doktora] - Prof. Dr. Derya İLİC
-Derslik 101: Muhasebe II (Tasfiye) [0. Sınıf] - Prof. Dr. Türker SUSMUŞ</t>
-  </si>
-  <si>
-    <t>Derslik 205: Muhasebe I [2. Sınıf] - Araş. Gör. Dr. Özgür BABACAN
+    <t>Derslik 104: Yatırım Analizi ve Portföy Yönetimi [İşletme Tezli] - Araş. Gör. Dr. Özgür BABACAN
+Derslik 102: İleri Örgüt Sosyolojisi [Yönetim ve Organizasyon Doktora] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 301: Girişimcilik ve KOBİ Yönetimi [3. Sınıf] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
+Derslik 303: Matematik-I (Çift) [1. Sınıf] - ÖĞRETMEN 2
+Derslik 109: Organizational Behavior (Tek) [2. Sınıf] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 205: Sürdürülebilir Pazarlama [3. Sınıf] - Prof. Dr. İpek KAZANÇOĞLU
+Derslik 203: Muhasebe I (Örgün + İ.Ö.) [0. Sınıf] - Prof. Dr. Türker SUSMUŞ</t>
+  </si>
+  <si>
+    <t>Derslik 108: Üretim İşlemler Stratejisi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Prof. Dr. Haluk SOYUER
+Derslik 211: Introduction to Business (Örgün + İ.Ö) [0. Sınıf] - Araş. Gör. Dr. Begüm KANAT TİRYAKİ
+Derslik 105: Reklamcılık Yönetimi [3. Sınıf] - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
+Derslik 205: Retailing I [4. Sınıf] - Dr. Öğr. Üyesi Miray BAYBARS
+Derslik 209: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim Bilimi ve Organizasyon Tezli] - Prof. Dr. Burak ÇAPRAZ
+Derslik 111: Küresel Tedarik Zinciri ve Lojistik [3. Sınıf] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 103: Endüstriyel Pazarlama [İşletme Tezli] - Prof. Dr. İpek KAZANÇOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 208: Pazarlama Kuramı [İşletme Doktora] - Prof. Dr. G. Nazan GÜNAY
+Derslik 303: Stok Yönetimi [Üretim Yönetimi Tezli] - Doç. Dr. Aydın KOÇAK
+Derslik 302: Dijital Dönüşümün Yönetimi [İşletme Tezli] - Doç. Dr. Haydar YALÇIN
+Derslik 210: Mali Tablolar Analizi [3. Sınıf] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
+Derslik 108: Örgütsel Davranış [Yönetim Bilimi ve Organizasyon Tezli] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 104: Bilimsel Araştırma Yöntemleri ve Etik [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 103: Pazarlamada Güncel Konular [Pazarlama Tezli] - Prof. Dr. Keti VENTURA</t>
+  </si>
+  <si>
+    <t>Derslik 102: Stok Yönetimi [İşletme Tezli] - Doç. Dr. Aydın KOÇAK
+Derslik 101: Örgüt Sosyolojisi [Yönetim Bilimi ve Organizasyon Tezli] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 108: Araştırma Yöntemleri (Çift) [3. Sınıf] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
+Derslik 202: E-Pazarlama [Pazarlama Tezli] - Dr. Öğr. Üyesi Miray BAYBARS
+Derslik 210: Stratejik Yönetimde Güncel Konular [Yönetim ve Organizasyon Doktora] - Prof. Dr. Burak ÇAPRAZ
+Derslik 201: Yönetim Geliştirme [3. Sınıf] - Prof. Dr. Derya İLİC
+Derslik 103: Pazarlamada Güncel Konular [İşletme Tezli] - Prof. Dr. Keti VENTURA
+Derslik 205: Uygulamalı Finansal Piyasa İşlemleri (Örgün) [0. Sınıf] - Prof. Dr. Türker SUSMUŞ</t>
+  </si>
+  <si>
+    <t>Derslik 301: Muhasebe I [2. Sınıf] - Araş. Gör. Dr. Özgür BABACAN
+Derslik 208: Stratejik Stok Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Doç. Dr. Aydın KOÇAK
+Derslik 210: Bilgi Yönetimi [3. Sınıf] - Doç. Dr. İnanç KABASAKAL
+Derslik 204: Kariyer Planlama [1. Sınıf] - Dr. Öğr. Üyesi Miray BAYBARS
+Derslik 203: Pazarlama Yönetimi [İşletme Tezli] - Prof. Dr. Aykan CANDEMİR
+Derslik 209: Üretim Çizelgeleme [İşletme Tezli] - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 303: Marketing Management I [2. Sınıf] - Prof. Dr. G. Nazan GÜNAY
+Derslik 202: Üretimde Yenilik ve Teknoloji Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Tezli] - Prof. Dr. Haluk SOYUER
+Derslik 111: Üretim ve İşlemler Yönetimi [İşletme Tezli] - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 301: Borçlar Hukuku [3. Sınıf] - Dr. Öğr. Üyesi Esin GÜRBÜZ
+Derslik 105: Tedarik Zinciri Yönetimi ve Lojistik [İşletme Tezli] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 108: Financial Management I [3. Sınıf] - Prof. Dr. Dilek DEMİRHAN</t>
+  </si>
+  <si>
+    <t>Derslik 202: Teknoloji ve Sanayi Dinamikleri [3. Sınıf] - Prof. Dr. Haluk SOYUER
+Derslik 303: Tüketici Davranışları [İşletme Tezli] - Prof. Dr. G. Nazan GÜNAY
+Derslik 108: System Analysis and Design [4. Sınıf] - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 301: Matematik-I (Tek) [1. Sınıf] - ÖĞRETMEN 1
+Derslik 209: Hizmet Pazarlaması [Pazarlama Tezli] - Prof. Dr. Ayla Özhan DEDEOĞLU
+Derslik 205: Değişim Yönetimi ve Yönetim Danışmanlığı [Yönetim Bilimi ve Organizasyon Tezli] - Prof. Dr. Derya İLİC
+Derslik 204: Üretim Çizelgeleme [Üretim Yönetimi Tezli] - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 204: Introduction to Microeconomics [1. Sınıf] - ÖĞRETMEN 3
+Derslik 101: Örgüt Sosyolojisi [İşletme Tezli] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 103: Ticaret Hukuku (Tasfiye) [0. Sınıf] - Doç. Dr. Sema AYDIN
+Derslik 303: Yönetim Bilişim Sistemleri [Üretim Yönetimi ve Sayısal Yöntemler Tezli] - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 105: Consumer Behavior (Tek) [3. Sınıf] - Prof. Dr. Ayla Özhan DEDEOĞLU
+Derslik 209: İnsan Kaynakları Yönetiminde Yeni Yaklaşımlar [Yönetim ve Organizasyon Doktora] - Prof. Dr. Derya İLİC
+Derslik 110: İleri Üretim Çizelgeleme [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 101: Vestel İşletmecilik Seminerleri I [4. Sınıf] - Prof. Dr. G. Nazan GÜNAY
+Derslik 204: Hukukun Temel Kavramları (Örgün + İ.Ö.) [1. Sınıf] - Doç. Dr. Sema AYDIN
+Derslik 201: Modelleme ve Optimizasyon [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 301: İşletme Hukuku [3. Sınıf] - Dr. Öğr. Üyesi Esin GÜRBÜZ
+Derslik 210: Örgütsel Davranış [İşletme Tezli] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 105: Pazarlama Yönetimi [Pazarlama Tezli] - Prof. Dr. Aykan CANDEMİR
+Derslik 109: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim ve Organizasyon Doktora] - Prof. Dr. Ayla Özhan DEDEOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 208: Uygulamalı Finansal Piyasa İşlemleri [3. Sınıf] - Prof. Dr. Türker SUSMUŞ
+Derslik 303: Atatürk İlkeleri ve İnkılap Tarihi I [1. Sınıf] - ÖĞRETMEN 5
+Derslik 109: Yönetimde Güncel Yaklaşımlar [İşletme Tezli] - Dr. Öğr. Üyesi Hakan ERKAL
+Derslik 105: Human Resources Management [4. Sınıf] - Prof. Dr. Burak ÇAPRAZ
+Derslik 108: Tedarik Zinciri Yönetimi ve Lojistik [Üretim Yönetimi Tezli] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 204: Seminer [Üretim Yönetimi ve Sayısal Yöntemler Tezli] - Prof. Dr. Haluk SOYUER</t>
+  </si>
+  <si>
+    <t>Derslik 104: İşletmeye Giriş [0. Sınıf] - Araş. Gör. Dr. Özgür BABACAN
+Derslik 109: Enformetri [3. Sınıf] - Doç. Dr. Haydar YALÇIN
+Derslik 209: Organizational Behavior (Çift) [2. Sınıf] - Dr. Öğr. Üyesi Hakan ERKAL
+Derslik 202: Türk Dili I [1. Sınıf] - ÖĞRETMEN 4
+Derslik 101: Hizmet Pazarlaması [İşletme Tezli] - Prof. Dr. Ayla Özhan DEDEOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 203: Business I (Tasfiye) [0. Sınıf] - Araş. Gör. Dr. Begüm KANAT TİRYAKİ
 Derslik 202: Consumer Behavior (Çift) [3. Sınıf] - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
-Derslik 301: Hukukun Temel Kavramları (Örgün + İ.Ö.) [1. Sınıf] - Doç. Dr. Sema AYDIN
-Derslik 203: E-Pazarlama [İşletme Tezli] - Dr. Öğr. Üyesi Miray BAYBARS
-Derslik 208: Stratejik Yönetimde Güncel Konular [Yönetim ve Organizasyon Doktora] - Prof. Dr. Burak ÇAPRAZ
-Derslik 103: Operations Research I [3. Sınıf] - Prof. Dr. Murat KOCAMAZ
-Derslik 204: Muhasebe I (Örgün + İ.Ö.) [0. Sınıf] - Prof. Dr. Türker SUSMUŞ</t>
-  </si>
-  <si>
-    <t>Derslik 201: Marketing Management I [2. Sınıf] - Prof. Dr. G. Nazan GÜNAY
-Derslik 203: Üretimde Yenilik ve Teknoloji Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Tezli] - Prof. Dr. Haluk SOYUER
-Derslik 111: Üretim ve İşlemler Yönetimi [İşletme Tezli] - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 204: Yönetimin Felsefi Temelleri [Yönetim ve Organizasyon Doktora] - Dr. Öğr. Üyesi Hakan ERKAL
-Derslik 211: Consumer Behavior (Tek) [3. Sınıf] - Prof. Dr. Ayla Özhan DEDEOĞLU
-Derslik 109: Bilimsel Araştırma Yöntemleri ve Etik [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 301: Pazarlamada Güncel Konular [Pazarlama Tezli] - Prof. Dr. Keti VENTURA</t>
-  </si>
-  <si>
-    <t>Derslik 201: Teknoloji ve Sanayi Dinamikleri [3. Sınıf] - Prof. Dr. Haluk SOYUER
-Derslik 204: Tüketici Davranışları [İşletme Tezli] - Prof. Dr. G. Nazan GÜNAY
-Derslik 111: System Analysis and Design [4. Sınıf] - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 210: E-Pazarlama [Pazarlama Tezli] - Dr. Öğr. Üyesi Miray BAYBARS
-Derslik 108: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim ve Organizasyon Doktora] - Prof. Dr. Ayla Özhan DEDEOĞLU
-Derslik 303: Tedarik Zinciri Yönetimi ve Lojistik [Üretim Yönetimi Tezli] - Prof. Dr. Burcu ARACIOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 303: Introduction to Microeconomics [1. Sınıf] - ÖĞRETMEN 3
-Derslik 209: İleri Örgüt Sosyolojisi [Yönetim ve Organizasyon Doktora] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 110: Araştırma Yöntemleri (Tek) [3. Sınıf] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
-Derslik 210: Yönetimde Güncel Yaklaşımlar [İşletme Tezli] - Dr. Öğr. Üyesi Hakan ERKAL
-Derslik 204: Hizmet Pazarlaması [Pazarlama Tezli] - Prof. Dr. Ayla Özhan DEDEOĞLU
-Derslik 101: Yönetim Geliştirme [3. Sınıf] - Prof. Dr. Derya İLİC</t>
-  </si>
-  <si>
-    <t>Derslik 110: Vestel İşletmecilik Seminerleri I [4. Sınıf] - Prof. Dr. G. Nazan GÜNAY
-Derslik 211: Stratejik Stok Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Doç. Dr. Aydın KOÇAK
-Derslik 303: Bilgi Yönetimi [3. Sınıf] - Doç. Dr. İnanç KABASAKAL
-Derslik 208: Türk Dili I [1. Sınıf] - ÖĞRETMEN 4
-Derslik 204: Pazarlama Yönetimi [İşletme Tezli] - Prof. Dr. Aykan CANDEMİR
-Derslik 108: Seminer [Üretim Yönetimi ve Sayısal Yöntemler Tezli] - Prof. Dr. Haluk SOYUER
-Derslik 111: Pazarlamada Güncel Konular [İşletme Tezli] - Prof. Dr. Keti VENTURA</t>
-  </si>
-  <si>
-    <t>Derslik 101: Uygulamalı Finansal Piyasa İşlemleri [3. Sınıf] - Prof. Dr. Türker SUSMUŞ
-Derslik 105: Atatürk İlkeleri ve İnkılap Tarihi I [1. Sınıf] - ÖĞRETMEN 5
-Derslik 102: İşletmeye Giriş [0. Sınıf] - Araş. Gör. Dr. Özgür BABACAN
-Derslik 209: Retailing I [4. Sınıf] - Dr. Öğr. Üyesi Miray BAYBARS
-Derslik 111: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim Bilimi ve Organizasyon Tezli] - Prof. Dr. Burak ÇAPRAZ
-Derslik 202: Küresel Tedarik Zinciri ve Lojistik [3. Sınıf] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 103: Üretim Çizelgeleme [İşletme Tezli] - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 109: Business I (Tasfiye) [0. Sınıf] - Araş. Gör. Dr. Begüm KANAT TİRYAKİ
-Derslik 208: Dijital Dönüşümün Yönetimi [İşletme Tezli] - Doç. Dr. Haydar YALÇIN
-Derslik 301: İşletme Hukuku [3. Sınıf] - Dr. Öğr. Üyesi Esin GÜRBÜZ
-Derslik 105: Yönetimde Güncel Yaklaşımlar [Yönetim Bilimi ve Organizasyon Tezli] - Dr. Öğr. Üyesi Hakan ERKAL
-Derslik 110: Hizmet Pazarlaması [İşletme Tezli] - Prof. Dr. Ayla Özhan DEDEOĞLU
-Derslik 101: Global Marketing (Çift) [4. Sınıf] - Prof. Dr. Keti VENTURA</t>
-  </si>
-  <si>
-    <t>Derslik 302: Yatırım Analizi ve Portföy Yönetimi [İşletme Tezli] - Araş. Gör. Dr. Özgür BABACAN
-Derslik 208: İstatistik I [2. Sınıf] - Doç. Dr. İnanç KABASAKAL
-Derslik 301: Modelleme ve Optimizasyon [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 109: Kariyer Planlama [1. Sınıf] - Dr. Öğr. Üyesi Miray BAYBARS
-Derslik 201: Mali Tablolar Analizi [3. Sınıf] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
-Derslik 111: Endüstriyel Pazarlama [Pazarlama Tezli] - Prof. Dr. İpek KAZANÇOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 210: E-İş ve Kurumsal Kaynak Planlama [3. Sınıf] - Doç. Dr. Aydın KOÇAK
-Derslik 208: Örgüt Sosyolojisi [İşletme Tezli] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 203: Organizational Behavior (Çift) [2. Sınıf] - Dr. Öğr. Üyesi Hakan ERKAL
-Derslik 202: Matematik-I (Tek) [1. Sınıf] - ÖĞRETMEN 1
-Derslik 302: İleri Örgütsel Davranış [Yönetim ve Organizasyon Doktora] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 110: Sürdürülebilir Pazarlama [3. Sınıf] - Prof. Dr. İpek KAZANÇOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 204: Stok Yönetimi [Üretim Yönetimi Tezli] - Doç. Dr. Aydın KOÇAK
-Derslik 210: Reklamcılık Yönetimi [3. Sınıf] - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
-Derslik 211: Bilimsel Araştırma Yöntemleri ve Etik [İşletme Tezli] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
-Derslik 104: Yönetim Muhasebesi [2. Sınıf] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
-Derslik 205: Pazarlama Yönetimi [Pazarlama Tezli] - Prof. Dr. Aykan CANDEMİR
-Derslik 209: Değişim Yönetimi ve Yönetim Danışmanlığı [Yönetim Bilimi ve Organizasyon Tezli] - Prof. Dr. Derya İLİC
-Derslik 203: Uygulamalı Finansal Piyasa İşlemleri (Örgün) [0. Sınıf] - Prof. Dr. Türker SUSMUŞ</t>
+Derslik 102: Bilimsel Araştırma Yöntemleri ve Etik [İşletme Tezli] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
+Derslik 109: Yönetimin Felsefi Temelleri [Yönetim ve Organizasyon Doktora] - Dr. Öğr. Üyesi Hakan ERKAL
+Derslik 111: Operations Management I [2. Sınıf] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 209: Endüstriyel Pazarlama [Pazarlama Tezli] - Prof. Dr. İpek KAZANÇOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 101: E-İş ve Kurumsal Kaynak Planlama [3. Sınıf] - Doç. Dr. Aydın KOÇAK
+Derslik 202: Teknoloji Yönetiminin Esasları [İşletme Tezli] - Doç. Dr. Haydar YALÇIN
+Derslik 302: Yönetimde Güncel Yaklaşımlar [Yönetim Bilimi ve Organizasyon Tezli] - Dr. Öğr. Üyesi Hakan ERKAL
+Derslik 111: Yönetim Muhasebesi [2. Sınıf] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
+Derslik 303: İleri Örgütsel Davranış [Yönetim ve Organizasyon Doktora] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 104: Tüketici Davranışları [Pazarlama Tezli] - Prof. Dr. G. Nazan GÜNAY</t>
+  </si>
+  <si>
+    <t>Derslik 102: Sosyoloji [1. Sınıf] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 101: Bilimsel Araştırma Yöntemleri ve Etik [Pazarlama Tezli] - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
+Derslik 202: Araştırma Yöntemleri (Tek) [3. Sınıf] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
+Derslik 201: E-Pazarlama [İşletme Tezli] - Dr. Öğr. Üyesi Miray BAYBARS
+Derslik 104: Management Consultancy [3. Sınıf] - Prof. Dr. Derya İLİC
+Derslik 208: Global Marketing (Çift) [4. Sınıf] - Prof. Dr. Keti VENTURA
+Derslik 111: Muhasebe II (Tasfiye) [0. Sınıf] - Prof. Dr. Türker SUSMUŞ</t>
   </si>
   <si>
     <t>Derslik 303: Yatırım Yönetimi [3. Sınıf] - Araş. Gör. Dr. Özgür BABACAN
-Derslik 109: Teknoloji Yönetiminin Esasları [İşletme Tezli] - Doç. Dr. Haydar YALÇIN
-Derslik 301: Ticaret Hukuku (Tasfiye) [0. Sınıf] - Doç. Dr. Sema AYDIN
-Derslik 203: Matematik-I (Çift) [1. Sınıf] - ÖĞRETMEN 2
-Derslik 101: Operations Management I [2. Sınıf] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 103: Üretim Çizelgeleme [Üretim Yönetimi Tezli] - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 205: Tüketici Davranışları A [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. G. Nazan GÜNAY
-Derslik 111: İnsan Kaynakları Yönetimi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 103: Bilimsel Araştırma Yöntemleri ve Etik [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 110: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Esin GÜRBÜZ
-Derslik 104: Stratejik Pazarlama Yönetimi [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Ayla Özhan DEDEOĞLU
-Derslik 203: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] - Prof. Dr. Burak ÇAPRAZ
-Derslik 201: Stratejik Yatırım Kararları ve Planlama [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 303: Stratejik Finans Yönetimi [Muhasebe ve Finansman İ.Ö. Tezsiz] - Prof. Dr. Dilek DEMİRHAN
-Derslik 301: Pazarlama Yönetimi [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Keti VENTURA</t>
-  </si>
-  <si>
-    <t>Derslik 208: Tüketici Davranışları B [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. G. Nazan GÜNAY
+Derslik 108: İstatistik I [2. Sınıf] - Doç. Dr. İnanç KABASAKAL
+Derslik 103: Business [1. Sınıf] - Dr. Öğr. Üyesi Miray BAYBARS
+Derslik 211: Global Marketing (Tek) [4. Sınıf] - Prof. Dr. Aykan CANDEMİR
+Derslik 109: Operations Research I [3. Sınıf] - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 108: Tüketici Davranışları A [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. G. Nazan GÜNAY
+Derslik 110: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 302: İş Analitiğinde Sayısal Yöntemler [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Doç. Dr. İnanç KABASAKAL
+Derslik 205: Bilimsel Araştırma Yöntemleri ve Etik [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 104: Pazarlama Yönetimi [İşletme İ.Ö. Tezsiz] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
+Derslik 101: Vadeli İşlem Piyasaları [Muhasebe ve Finansman İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
+Derslik 201: Örgütsel Davranış [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 303: Tedarik Zinciri Yönetimi ve Lojistik [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 209: Stratejik Finans Yönetimi [Muhasebe ve Finansman İ.Ö. Tezsiz] - Prof. Dr. Dilek DEMİRHAN
+Derslik 301: Perakendecilik [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. İpek KAZANÇOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 210: Tüketici Davranışları B [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. G. Nazan GÜNAY
 Derslik 109: Stratejik Üretim Yönetimi ve Üretimde Dijitalleşme [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Haluk SOYUER
-Derslik 203: Bilimsel Araştırma Yöntemleri ve Etik [Muhasebe ve Finansman İ.Ö. Tezsiz] - Doç. Dr. Haydar YALÇIN
-Derslik 204: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 111: Örgütsel Davranış [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 202: Tedarik Zinciri Yönetimi ve Lojistik [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 104: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] - Prof. Dr. Dilek DEMİRHAN
-Derslik 101: Ağ Modelleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 108: Malzeme ve Stok Yönetimi [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Doç. Dr. Aydın KOÇAK
-Derslik 201: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 111: Akıllı Karar Modelleri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 209: Yönetim Atölyesi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Hakan ERKAL
-Derslik 104: Vadeli İşlem Piyasaları [Muhasebe ve Finansman İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
-Derslik 202: Hizmet Pazarlaması [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Aykan CANDEMİR
-Derslik 103: Örgütler ve Yönetim [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. Derya İLİC
-Derslik 205: Perakendecilik [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. İpek KAZANÇOĞLU
-Derslik 102: Veri Odaklı Üretim Planlama Stratejileri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 201: Tedarik Zinciri ve Lojistik İçin Bilgi Sistemleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Haluk SOYUER
-Derslik 302: Proje Yönetimi [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Doç. Dr. Aydın KOÇAK
-Derslik 104: Pazarlama Yönetimi [İşletme İ.Ö. Tezsiz] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
-Derslik 204: Sermaye Piyasaları ve Menkul Kıymetler Analizi [Muhasebe ve Finansman İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
-Derslik 102: Kurumsal Koçluk ve Mentorluk [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 205: Hizmet Pazarlaması [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Aykan CANDEMİR
-Derslik 210: Örgütler ve Yönetim [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Derya İLİC
-Derslik 203: Endüstriyel Pazarlama [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Keti VENTURA
-Derslik 108: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] - Prof. Dr. Türker SUSMUŞ</t>
-  </si>
-  <si>
-    <t>Derslik 205: İşlemler Yönetimi [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Haluk SOYUER
-Derslik 303: Uluslararası Finansman [Muhasebe ve Finansman İ.Ö. Tezsiz] - Araş. Gör. Dr. Özgür BABACAN
-Derslik 105: İş Analitiğinde Sayısal Yöntemler [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Doç. Dr. İnanç KABASAKAL
+Derslik 302: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 211: Sermaye Piyasaları ve Menkul Kıymetler Analizi [Muhasebe ve Finansman İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
+Derslik 101: Bilimsel Araştırma Yöntemleri ve Etik [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. Burak ÇAPRAZ
+Derslik 110: Örgütler ve Yönetim [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. Derya İLİC
+Derslik 205: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] - Prof. Dr. Dilek DEMİRHAN
+Derslik 202: Endüstriyel Pazarlama [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Keti VENTURA
+Derslik 105: Ağ Modelleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 204: Uluslararası Finansman [Muhasebe ve Finansman İ.Ö. Tezsiz] - Araş. Gör. Dr. Özgür BABACAN
+Derslik 102: İnsan Kaynakları Yönetimi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
 Derslik 202: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] - Doç. Dr. Sema AYDIN
-Derslik 201: Bilimsel Araştırma Yöntemleri ve Etik [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. Burak ÇAPRAZ
+Derslik 211: Akıllı Karar Modelleri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 109: Hizmet Pazarlaması [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Aykan CANDEMİR
 Derslik 110: Lojistik ve Tedarik Zincirinde Güncel Konular [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 301: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] - Prof. Dr. Murat KOCAMAZ
-Derslik 208: Finansal Muhasebe [Muhasebe ve Finansman İ.Ö. Tezsiz] - Prof. Dr. Türker SUSMUŞ</t>
+Derslik 103: Örgütler ve Yönetim [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Derya İLİC
+Derslik 302: Pazarlama Yönetimi [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Keti VENTURA
+Derslik 104: Veri Odaklı Üretim Planlama Stratejileri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Murat KOCAMAZ
+Derslik 209: Finansal Muhasebe [Muhasebe ve Finansman İ.Ö. Tezsiz] - Prof. Dr. Türker SUSMUŞ</t>
+  </si>
+  <si>
+    <t>Derslik 209: Tedarik Zinciri ve Lojistik İçin Bilgi Sistemleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Haluk SOYUER
+Derslik 301: Proje Yönetimi [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Doç. Dr. Aydın KOÇAK
+Derslik 102: Bilimsel Araştırma Yöntemleri ve Etik [Muhasebe ve Finansman İ.Ö. Tezsiz] - Doç. Dr. Haydar YALÇIN
+Derslik 201: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Esin GÜRBÜZ
+Derslik 111: Kurumsal Koçluk ve Mentorluk [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 204: Hizmet Pazarlaması [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Aykan CANDEMİR
+Derslik 108: Stratejik Pazarlama Yönetimi [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Ayla Özhan DEDEOĞLU
+Derslik 101: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 208: İşlemler Yönetimi [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Haluk SOYUER
+Derslik 102: Malzeme ve Stok Yönetimi [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Doç. Dr. Aydın KOÇAK
+Derslik 202: Yönetim Atölyesi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Hakan ERKAL
+Derslik 111: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] - Prof. Dr. Burak ÇAPRAZ
+Derslik 109: Stratejik Yatırım Kararları ve Planlama [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 203: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] - Prof. Dr. Türker SUSMUŞ</t>
   </si>
   <si>
     <t>Kriter</t>
@@ -722,7 +722,7 @@
         <v>31</v>
       </c>
       <c r="C2">
-        <v>2002</v>
+        <v>5018</v>
       </c>
     </row>
   </sheetData>

--- a/dist/isletme_ders_programi.xlsx
+++ b/dist/isletme_ders_programi.xlsx
@@ -44,184 +44,184 @@
     <t>Cuma</t>
   </si>
   <si>
-    <t>Derslik 104: Yatırım Analizi ve Portföy Yönetimi [İşletme Tezli] - Araş. Gör. Dr. Özgür BABACAN
-Derslik 102: İleri Örgüt Sosyolojisi [Yönetim ve Organizasyon Doktora] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 301: Girişimcilik ve KOBİ Yönetimi [3. Sınıf] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
-Derslik 303: Matematik-I (Çift) [1. Sınıf] - ÖĞRETMEN 2
-Derslik 109: Organizational Behavior (Tek) [2. Sınıf] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 205: Sürdürülebilir Pazarlama [3. Sınıf] - Prof. Dr. İpek KAZANÇOĞLU
-Derslik 203: Muhasebe I (Örgün + İ.Ö.) [0. Sınıf] - Prof. Dr. Türker SUSMUŞ</t>
-  </si>
-  <si>
-    <t>Derslik 108: Üretim İşlemler Stratejisi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Prof. Dr. Haluk SOYUER
-Derslik 211: Introduction to Business (Örgün + İ.Ö) [0. Sınıf] - Araş. Gör. Dr. Begüm KANAT TİRYAKİ
-Derslik 105: Reklamcılık Yönetimi [3. Sınıf] - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
-Derslik 205: Retailing I [4. Sınıf] - Dr. Öğr. Üyesi Miray BAYBARS
-Derslik 209: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim Bilimi ve Organizasyon Tezli] - Prof. Dr. Burak ÇAPRAZ
-Derslik 111: Küresel Tedarik Zinciri ve Lojistik [3. Sınıf] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 103: Endüstriyel Pazarlama [İşletme Tezli] - Prof. Dr. İpek KAZANÇOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 208: Pazarlama Kuramı [İşletme Doktora] - Prof. Dr. G. Nazan GÜNAY
-Derslik 303: Stok Yönetimi [Üretim Yönetimi Tezli] - Doç. Dr. Aydın KOÇAK
-Derslik 302: Dijital Dönüşümün Yönetimi [İşletme Tezli] - Doç. Dr. Haydar YALÇIN
-Derslik 210: Mali Tablolar Analizi [3. Sınıf] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
-Derslik 108: Örgütsel Davranış [Yönetim Bilimi ve Organizasyon Tezli] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 104: Bilimsel Araştırma Yöntemleri ve Etik [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 103: Pazarlamada Güncel Konular [Pazarlama Tezli] - Prof. Dr. Keti VENTURA</t>
-  </si>
-  <si>
-    <t>Derslik 102: Stok Yönetimi [İşletme Tezli] - Doç. Dr. Aydın KOÇAK
-Derslik 101: Örgüt Sosyolojisi [Yönetim Bilimi ve Organizasyon Tezli] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 108: Araştırma Yöntemleri (Çift) [3. Sınıf] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
-Derslik 202: E-Pazarlama [Pazarlama Tezli] - Dr. Öğr. Üyesi Miray BAYBARS
-Derslik 210: Stratejik Yönetimde Güncel Konular [Yönetim ve Organizasyon Doktora] - Prof. Dr. Burak ÇAPRAZ
-Derslik 201: Yönetim Geliştirme [3. Sınıf] - Prof. Dr. Derya İLİC
-Derslik 103: Pazarlamada Güncel Konular [İşletme Tezli] - Prof. Dr. Keti VENTURA
-Derslik 205: Uygulamalı Finansal Piyasa İşlemleri (Örgün) [0. Sınıf] - Prof. Dr. Türker SUSMUŞ</t>
-  </si>
-  <si>
-    <t>Derslik 301: Muhasebe I [2. Sınıf] - Araş. Gör. Dr. Özgür BABACAN
-Derslik 208: Stratejik Stok Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Doç. Dr. Aydın KOÇAK
-Derslik 210: Bilgi Yönetimi [3. Sınıf] - Doç. Dr. İnanç KABASAKAL
-Derslik 204: Kariyer Planlama [1. Sınıf] - Dr. Öğr. Üyesi Miray BAYBARS
-Derslik 203: Pazarlama Yönetimi [İşletme Tezli] - Prof. Dr. Aykan CANDEMİR
-Derslik 209: Üretim Çizelgeleme [İşletme Tezli] - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 303: Marketing Management I [2. Sınıf] - Prof. Dr. G. Nazan GÜNAY
-Derslik 202: Üretimde Yenilik ve Teknoloji Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Tezli] - Prof. Dr. Haluk SOYUER
-Derslik 111: Üretim ve İşlemler Yönetimi [İşletme Tezli] - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 301: Borçlar Hukuku [3. Sınıf] - Dr. Öğr. Üyesi Esin GÜRBÜZ
-Derslik 105: Tedarik Zinciri Yönetimi ve Lojistik [İşletme Tezli] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 108: Financial Management I [3. Sınıf] - Prof. Dr. Dilek DEMİRHAN</t>
-  </si>
-  <si>
-    <t>Derslik 202: Teknoloji ve Sanayi Dinamikleri [3. Sınıf] - Prof. Dr. Haluk SOYUER
-Derslik 303: Tüketici Davranışları [İşletme Tezli] - Prof. Dr. G. Nazan GÜNAY
-Derslik 108: System Analysis and Design [4. Sınıf] - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 301: Matematik-I (Tek) [1. Sınıf] - ÖĞRETMEN 1
-Derslik 209: Hizmet Pazarlaması [Pazarlama Tezli] - Prof. Dr. Ayla Özhan DEDEOĞLU
-Derslik 205: Değişim Yönetimi ve Yönetim Danışmanlığı [Yönetim Bilimi ve Organizasyon Tezli] - Prof. Dr. Derya İLİC
-Derslik 204: Üretim Çizelgeleme [Üretim Yönetimi Tezli] - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 204: Introduction to Microeconomics [1. Sınıf] - ÖĞRETMEN 3
-Derslik 101: Örgüt Sosyolojisi [İşletme Tezli] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 103: Ticaret Hukuku (Tasfiye) [0. Sınıf] - Doç. Dr. Sema AYDIN
-Derslik 303: Yönetim Bilişim Sistemleri [Üretim Yönetimi ve Sayısal Yöntemler Tezli] - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 105: Consumer Behavior (Tek) [3. Sınıf] - Prof. Dr. Ayla Özhan DEDEOĞLU
-Derslik 209: İnsan Kaynakları Yönetiminde Yeni Yaklaşımlar [Yönetim ve Organizasyon Doktora] - Prof. Dr. Derya İLİC
-Derslik 110: İleri Üretim Çizelgeleme [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 101: Vestel İşletmecilik Seminerleri I [4. Sınıf] - Prof. Dr. G. Nazan GÜNAY
-Derslik 204: Hukukun Temel Kavramları (Örgün + İ.Ö.) [1. Sınıf] - Doç. Dr. Sema AYDIN
-Derslik 201: Modelleme ve Optimizasyon [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 301: İşletme Hukuku [3. Sınıf] - Dr. Öğr. Üyesi Esin GÜRBÜZ
-Derslik 210: Örgütsel Davranış [İşletme Tezli] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 105: Pazarlama Yönetimi [Pazarlama Tezli] - Prof. Dr. Aykan CANDEMİR
-Derslik 109: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim ve Organizasyon Doktora] - Prof. Dr. Ayla Özhan DEDEOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 208: Uygulamalı Finansal Piyasa İşlemleri [3. Sınıf] - Prof. Dr. Türker SUSMUŞ
-Derslik 303: Atatürk İlkeleri ve İnkılap Tarihi I [1. Sınıf] - ÖĞRETMEN 5
-Derslik 109: Yönetimde Güncel Yaklaşımlar [İşletme Tezli] - Dr. Öğr. Üyesi Hakan ERKAL
-Derslik 105: Human Resources Management [4. Sınıf] - Prof. Dr. Burak ÇAPRAZ
-Derslik 108: Tedarik Zinciri Yönetimi ve Lojistik [Üretim Yönetimi Tezli] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 204: Seminer [Üretim Yönetimi ve Sayısal Yöntemler Tezli] - Prof. Dr. Haluk SOYUER</t>
-  </si>
-  <si>
-    <t>Derslik 104: İşletmeye Giriş [0. Sınıf] - Araş. Gör. Dr. Özgür BABACAN
-Derslik 109: Enformetri [3. Sınıf] - Doç. Dr. Haydar YALÇIN
-Derslik 209: Organizational Behavior (Çift) [2. Sınıf] - Dr. Öğr. Üyesi Hakan ERKAL
-Derslik 202: Türk Dili I [1. Sınıf] - ÖĞRETMEN 4
-Derslik 101: Hizmet Pazarlaması [İşletme Tezli] - Prof. Dr. Ayla Özhan DEDEOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 203: Business I (Tasfiye) [0. Sınıf] - Araş. Gör. Dr. Begüm KANAT TİRYAKİ
-Derslik 202: Consumer Behavior (Çift) [3. Sınıf] - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
-Derslik 102: Bilimsel Araştırma Yöntemleri ve Etik [İşletme Tezli] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
-Derslik 109: Yönetimin Felsefi Temelleri [Yönetim ve Organizasyon Doktora] - Dr. Öğr. Üyesi Hakan ERKAL
-Derslik 111: Operations Management I [2. Sınıf] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 209: Endüstriyel Pazarlama [Pazarlama Tezli] - Prof. Dr. İpek KAZANÇOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 101: E-İş ve Kurumsal Kaynak Planlama [3. Sınıf] - Doç. Dr. Aydın KOÇAK
-Derslik 202: Teknoloji Yönetiminin Esasları [İşletme Tezli] - Doç. Dr. Haydar YALÇIN
-Derslik 302: Yönetimde Güncel Yaklaşımlar [Yönetim Bilimi ve Organizasyon Tezli] - Dr. Öğr. Üyesi Hakan ERKAL
-Derslik 111: Yönetim Muhasebesi [2. Sınıf] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
-Derslik 303: İleri Örgütsel Davranış [Yönetim ve Organizasyon Doktora] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 104: Tüketici Davranışları [Pazarlama Tezli] - Prof. Dr. G. Nazan GÜNAY</t>
-  </si>
-  <si>
-    <t>Derslik 102: Sosyoloji [1. Sınıf] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 101: Bilimsel Araştırma Yöntemleri ve Etik [Pazarlama Tezli] - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
-Derslik 202: Araştırma Yöntemleri (Tek) [3. Sınıf] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
-Derslik 201: E-Pazarlama [İşletme Tezli] - Dr. Öğr. Üyesi Miray BAYBARS
-Derslik 104: Management Consultancy [3. Sınıf] - Prof. Dr. Derya İLİC
-Derslik 208: Global Marketing (Çift) [4. Sınıf] - Prof. Dr. Keti VENTURA
-Derslik 111: Muhasebe II (Tasfiye) [0. Sınıf] - Prof. Dr. Türker SUSMUŞ</t>
+    <t>Derslik 209: Business I (Tasfiye) [0. Sınıf] - Araş. Gör. Dr. Begüm KANAT TİRYAKİ
+Derslik 203: Örgüt Sosyolojisi [Yönetim Bilimi ve Organizasyon Tezli] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 104: Teknoloji Yönetiminin Esasları [İşletme Tezli] - Doç. Dr. Haydar YALÇIN
+Derslik 105: Girişimcilik ve KOBİ Yönetimi [3. Sınıf] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
+Derslik 211: Operations Management I [2. Sınıf] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 205: Endüstriyel Pazarlama [Pazarlama Tezli] - Prof. Dr. İpek KAZANÇOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 302: Üretim İşlemler Stratejisi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Prof. Dr. Haluk SOYUER
+Derslik 204: Örgüt Sosyolojisi [İşletme Tezli] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 104: Bilgi Yönetimi [3. Sınıf] - Doç. Dr. İnanç KABASAKAL
+Derslik 105: Türk Dili I [1. Sınıf] - ÖĞRETMEN 4
+Derslik 111: İleri Örgütsel Davranış [Yönetim ve Organizasyon Doktora] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 102: Değişim Yönetimi ve Yönetim Danışmanlığı [Yönetim Bilimi ve Organizasyon Tezli] - Prof. Dr. Derya İLİC
+Derslik 203: Pazarlamada Güncel Konular [Pazarlama Tezli] - Prof. Dr. Keti VENTURA
+Derslik 101: Uygulamalı Finansal Piyasa İşlemleri (Örgün) [0. Sınıf] - Prof. Dr. Türker SUSMUŞ</t>
+  </si>
+  <si>
+    <t>Derslik 102: Pazarlama Kuramı [İşletme Doktora] - Prof. Dr. G. Nazan GÜNAY
+Derslik 202: Stok Yönetimi [İşletme Tezli] - Doç. Dr. Aydın KOÇAK
+Derslik 208: Reklamcılık Yönetimi [3. Sınıf] - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
+Derslik 104: E-Pazarlama [Pazarlama Tezli] - Dr. Öğr. Üyesi Miray BAYBARS
+Derslik 109: Örgütsel Davranış [Yönetim Bilimi ve Organizasyon Tezli] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 210: Bilimsel Araştırma Yöntemleri ve Etik [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 209: İnsan Kaynakları Yönetiminde Yeni Yaklaşımlar [Yönetim ve Organizasyon Doktora] - Prof. Dr. Derya İLİC</t>
+  </si>
+  <si>
+    <t>Derslik 110: Yatırım Analizi ve Portföy Yönetimi [İşletme Tezli] - Araş. Gör. Dr. Özgür BABACAN
+Derslik 210: Stratejik Stok Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Doç. Dr. Aydın KOÇAK
+Derslik 301: Araştırma Yöntemleri (Çift) [3. Sınıf] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
+Derslik 101: Yönetim Muhasebesi [2. Sınıf] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
+Derslik 201: Pazarlama Yönetimi [Pazarlama Tezli] - Prof. Dr. Aykan CANDEMİR
+Derslik 105: Seminer [Üretim Yönetimi ve Sayısal Yöntemler Tezli] - Prof. Dr. Haluk SOYUER</t>
   </si>
   <si>
     <t>Derslik 303: Yatırım Yönetimi [3. Sınıf] - Araş. Gör. Dr. Özgür BABACAN
-Derslik 108: İstatistik I [2. Sınıf] - Doç. Dr. İnanç KABASAKAL
-Derslik 103: Business [1. Sınıf] - Dr. Öğr. Üyesi Miray BAYBARS
-Derslik 211: Global Marketing (Tek) [4. Sınıf] - Prof. Dr. Aykan CANDEMİR
+Derslik 209: Stok Yönetimi [Üretim Yönetimi Tezli] - Doç. Dr. Aydın KOÇAK
+Derslik 110: Kariyer Planlama [1. Sınıf] - Dr. Öğr. Üyesi Miray BAYBARS
+Derslik 205: Pazarlama Yönetimi [İşletme Tezli] - Prof. Dr. Aykan CANDEMİR
+Derslik 203: Tedarik Zinciri Yönetimi ve Lojistik [İşletme Tezli] - Prof. Dr. Burcu ARACIOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 108: Marketing Management I [2. Sınıf] - Prof. Dr. G. Nazan GÜNAY
+Derslik 210: Üretimde Yenilik ve Teknoloji Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Tezli] - Prof. Dr. Haluk SOYUER
+Derslik 110: Ticaret Hukuku (Tasfiye) [0. Sınıf] - Doç. Dr. Sema AYDIN
+Derslik 205: Modelleme ve Optimizasyon [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 301: Mali Tablolar Analizi [3. Sınıf] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
+Derslik 303: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim Bilimi ve Organizasyon Tezli] - Prof. Dr. Burak ÇAPRAZ
+Derslik 111: Pazarlamada Güncel Konular [İşletme Tezli] - Prof. Dr. Keti VENTURA</t>
+  </si>
+  <si>
+    <t>Derslik 203: Teknoloji ve Sanayi Dinamikleri [3. Sınıf] - Prof. Dr. Haluk SOYUER
+Derslik 210: Tüketici Davranışları [İşletme Tezli] - Prof. Dr. G. Nazan GÜNAY
+Derslik 211: Yönetimde Güncel Yaklaşımlar [Yönetim Bilimi ve Organizasyon Tezli] - Dr. Öğr. Üyesi Hakan ERKAL
+Derslik 110: Matematik-I (Çift) [1. Sınıf] - ÖĞRETMEN 2
+Derslik 301: Tedarik Zinciri Yönetimi ve Lojistik [Üretim Yönetimi Tezli] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 105: Financial Management I [3. Sınıf] - Prof. Dr. Dilek DEMİRHAN
+Derslik 101: İleri Üretim Çizelgeleme [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 202: Introduction to Microeconomics [1. Sınıf] - ÖĞRETMEN 3
+Derslik 105: İleri Örgüt Sosyolojisi [Yönetim ve Organizasyon Doktora] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 101: Üretim ve İşlemler Yönetimi [İşletme Tezli] - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 204: İşletme Hukuku [3. Sınıf] - Dr. Öğr. Üyesi Esin GÜRBÜZ
+Derslik 201: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim ve Organizasyon Doktora] - Prof. Dr. Ayla Özhan DEDEOĞLU
+Derslik 203: Global Marketing (Çift) [4. Sınıf] - Prof. Dr. Keti VENTURA
+Derslik 108: Üretim Çizelgeleme [Üretim Yönetimi Tezli] - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 104: Vestel İşletmecilik Seminerleri I [4. Sınıf] - Prof. Dr. G. Nazan GÜNAY
+Derslik 205: Hukukun Temel Kavramları (Örgün + İ.Ö.) [1. Sınıf] - Doç. Dr. Sema AYDIN
+Derslik 203: Yönetim Bilişim Sistemleri [Üretim Yönetimi ve Sayısal Yöntemler Tezli] - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 204: Borçlar Hukuku [3. Sınıf] - Dr. Öğr. Üyesi Esin GÜRBÜZ
+Derslik 110: Örgütsel Davranış [İşletme Tezli] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 303: Hizmet Pazarlaması [Pazarlama Tezli] - Prof. Dr. Ayla Özhan DEDEOĞLU
+Derslik 108: Muhasebe I (Örgün + İ.Ö.) [0. Sınıf] - Prof. Dr. Türker SUSMUŞ</t>
+  </si>
+  <si>
+    <t>Derslik 205: Uygulamalı Finansal Piyasa İşlemleri [3. Sınıf] - Prof. Dr. Türker SUSMUŞ
+Derslik 204: Atatürk İlkeleri ve İnkılap Tarihi I [1. Sınıf] - ÖĞRETMEN 5
+Derslik 101: Yönetimde Güncel Yaklaşımlar [İşletme Tezli] - Dr. Öğr. Üyesi Hakan ERKAL
+Derslik 104: Human Resources Management [4. Sınıf] - Prof. Dr. Burak ÇAPRAZ
+Derslik 105: Management Consultancy [3. Sınıf] - Prof. Dr. Derya İLİC
+Derslik 203: Üretim Çizelgeleme [İşletme Tezli] - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 110: Introduction to Business (Örgün + İ.Ö) [0. Sınıf] - Araş. Gör. Dr. Begüm KANAT TİRYAKİ
+Derslik 108: Enformetri [3. Sınıf] - Doç. Dr. Haydar YALÇIN
+Derslik 303: Organizational Behavior (Çift) [2. Sınıf] - Dr. Öğr. Üyesi Hakan ERKAL
+Derslik 109: Matematik-I (Tek) [1. Sınıf] - ÖĞRETMEN 1
+Derslik 202: Hizmet Pazarlaması [İşletme Tezli] - Prof. Dr. Ayla Özhan DEDEOĞLU
+Derslik 205: Sürdürülebilir Pazarlama [3. Sınıf] - Prof. Dr. İpek KAZANÇOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 210: Sosyoloji [1. Sınıf] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 202: İstatistik I [2. Sınıf] - Doç. Dr. İnanç KABASAKAL
+Derslik 204: System Analysis and Design [4. Sınıf] - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 104: Araştırma Yöntemleri (Tek) [3. Sınıf] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
+Derslik 110: Consumer Behavior (Tek) [3. Sınıf] - Prof. Dr. Ayla Özhan DEDEOĞLU
+Derslik 205: Endüstriyel Pazarlama [İşletme Tezli] - Prof. Dr. İpek KAZANÇOĞLU
+Derslik 209: Muhasebe II (Tasfiye) [0. Sınıf] - Prof. Dr. Türker SUSMUŞ</t>
+  </si>
+  <si>
+    <t>Derslik 204: İşletmeye Giriş [0. Sınıf] - Araş. Gör. Dr. Özgür BABACAN
+Derslik 210: Consumer Behavior (Çift) [3. Sınıf] - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
+Derslik 211: Yönetimin Felsefi Temelleri [Yönetim ve Organizasyon Doktora] - Dr. Öğr. Üyesi Hakan ERKAL
+Derslik 208: E-Pazarlama [İşletme Tezli] - Dr. Öğr. Üyesi Miray BAYBARS
+Derslik 203: Organizational Behavior (Tek) [2. Sınıf] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 202: Yönetim Geliştirme [3. Sınıf] - Prof. Dr. Derya İLİC
+Derslik 101: Tüketici Davranışları [Pazarlama Tezli] - Prof. Dr. G. Nazan GÜNAY</t>
+  </si>
+  <si>
+    <t>Derslik 201: E-İş ve Kurumsal Kaynak Planlama [3. Sınıf] - Doç. Dr. Aydın KOÇAK
+Derslik 208: Bilimsel Araştırma Yöntemleri ve Etik [Pazarlama Tezli] - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
+Derslik 301: Bilimsel Araştırma Yöntemleri ve Etik [İşletme Tezli] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
+Derslik 210: Retailing I [4. Sınıf] - Dr. Öğr. Üyesi Miray BAYBARS
+Derslik 211: Stratejik Yönetimde Güncel Konular [Yönetim ve Organizasyon Doktora] - Prof. Dr. Burak ÇAPRAZ
 Derslik 109: Operations Research I [3. Sınıf] - Prof. Dr. Murat KOCAMAZ</t>
   </si>
   <si>
-    <t>Derslik 108: Tüketici Davranışları A [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. G. Nazan GÜNAY
-Derslik 110: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 302: İş Analitiğinde Sayısal Yöntemler [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Doç. Dr. İnanç KABASAKAL
-Derslik 205: Bilimsel Araştırma Yöntemleri ve Etik [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 104: Pazarlama Yönetimi [İşletme İ.Ö. Tezsiz] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
-Derslik 101: Vadeli İşlem Piyasaları [Muhasebe ve Finansman İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
-Derslik 201: Örgütsel Davranış [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 303: Tedarik Zinciri Yönetimi ve Lojistik [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 209: Stratejik Finans Yönetimi [Muhasebe ve Finansman İ.Ö. Tezsiz] - Prof. Dr. Dilek DEMİRHAN
-Derslik 301: Perakendecilik [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. İpek KAZANÇOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 210: Tüketici Davranışları B [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. G. Nazan GÜNAY
-Derslik 109: Stratejik Üretim Yönetimi ve Üretimde Dijitalleşme [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Haluk SOYUER
-Derslik 302: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 211: Sermaye Piyasaları ve Menkul Kıymetler Analizi [Muhasebe ve Finansman İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
-Derslik 101: Bilimsel Araştırma Yöntemleri ve Etik [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. Burak ÇAPRAZ
-Derslik 110: Örgütler ve Yönetim [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. Derya İLİC
-Derslik 205: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] - Prof. Dr. Dilek DEMİRHAN
-Derslik 202: Endüstriyel Pazarlama [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Keti VENTURA
-Derslik 105: Ağ Modelleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 204: Uluslararası Finansman [Muhasebe ve Finansman İ.Ö. Tezsiz] - Araş. Gör. Dr. Özgür BABACAN
-Derslik 102: İnsan Kaynakları Yönetimi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 202: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] - Doç. Dr. Sema AYDIN
-Derslik 211: Akıllı Karar Modelleri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 109: Hizmet Pazarlaması [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Aykan CANDEMİR
-Derslik 110: Lojistik ve Tedarik Zincirinde Güncel Konular [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 103: Örgütler ve Yönetim [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Derya İLİC
-Derslik 302: Pazarlama Yönetimi [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Keti VENTURA
-Derslik 104: Veri Odaklı Üretim Planlama Stratejileri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Murat KOCAMAZ
-Derslik 209: Finansal Muhasebe [Muhasebe ve Finansman İ.Ö. Tezsiz] - Prof. Dr. Türker SUSMUŞ</t>
-  </si>
-  <si>
-    <t>Derslik 209: Tedarik Zinciri ve Lojistik İçin Bilgi Sistemleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Haluk SOYUER
-Derslik 301: Proje Yönetimi [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Doç. Dr. Aydın KOÇAK
-Derslik 102: Bilimsel Araştırma Yöntemleri ve Etik [Muhasebe ve Finansman İ.Ö. Tezsiz] - Doç. Dr. Haydar YALÇIN
-Derslik 201: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Esin GÜRBÜZ
-Derslik 111: Kurumsal Koçluk ve Mentorluk [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 204: Hizmet Pazarlaması [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Aykan CANDEMİR
-Derslik 108: Stratejik Pazarlama Yönetimi [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Ayla Özhan DEDEOĞLU
-Derslik 101: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 208: İşlemler Yönetimi [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Haluk SOYUER
-Derslik 102: Malzeme ve Stok Yönetimi [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Doç. Dr. Aydın KOÇAK
-Derslik 202: Yönetim Atölyesi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Hakan ERKAL
-Derslik 111: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] - Prof. Dr. Burak ÇAPRAZ
-Derslik 109: Stratejik Yatırım Kararları ve Planlama [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Burcu ARACIOĞLU
+    <t>Derslik 203: Muhasebe I [2. Sınıf] - Araş. Gör. Dr. Özgür BABACAN
+Derslik 108: Dijital Dönüşümün Yönetimi [İşletme Tezli] - Doç. Dr. Haydar YALÇIN
+Derslik 104: Business [1. Sınıf] - Dr. Öğr. Üyesi Miray BAYBARS
+Derslik 202: Global Marketing (Tek) [4. Sınıf] - Prof. Dr. Aykan CANDEMİR
+Derslik 204: Küresel Tedarik Zinciri ve Lojistik [3. Sınıf] - Prof. Dr. Burcu ARACIOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 203: Tüketici Davranışları A [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. G. Nazan GÜNAY
+Derslik 302: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 303: Bilimsel Araştırma Yöntemleri ve Etik [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 111: Pazarlama Yönetimi [İşletme İ.Ö. Tezsiz] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
+Derslik 201: Sermaye Piyasaları ve Menkul Kıymetler Analizi [Muhasebe ve Finansman İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
+Derslik 102: Bilimsel Araştırma Yöntemleri ve Etik [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. Burak ÇAPRAZ
+Derslik 103: Stratejik Yatırım Kararları ve Planlama [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 104: Endüstriyel Pazarlama [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Keti VENTURA</t>
+  </si>
+  <si>
+    <t>Derslik 202: Tüketici Davranışları B [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. G. Nazan GÜNAY
+Derslik 302: Stratejik Üretim Yönetimi ve Üretimde Dijitalleşme [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Haluk SOYUER
+Derslik 110: Bilimsel Araştırma Yöntemleri ve Etik [Muhasebe ve Finansman İ.Ö. Tezsiz] - Doç. Dr. Haydar YALÇIN
+Derslik 109: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Esin GÜRBÜZ
+Derslik 203: Örgütsel Davranış [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 103: Lojistik ve Tedarik Zincirinde Güncel Konular [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 201: Örgütler ve Yönetim [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Derya İLİC
+Derslik 209: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] - Prof. Dr. Dilek DEMİRHAN
+Derslik 210: Ağ Modelleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 204: Malzeme ve Stok Yönetimi [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Doç. Dr. Aydın KOÇAK
+Derslik 103: İnsan Kaynakları Yönetimi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 104: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 201: Vadeli İşlem Piyasaları [Muhasebe ve Finansman İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
+Derslik 108: Hizmet Pazarlaması [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Aykan CANDEMİR
+Derslik 211: Tedarik Zinciri Yönetimi ve Lojistik [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 301: Stratejik Finans Yönetimi [Muhasebe ve Finansman İ.Ö. Tezsiz] - Prof. Dr. Dilek DEMİRHAN
+Derslik 102: Perakendecilik [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. İpek KAZANÇOĞLU
+Derslik 101: Pazarlama Yönetimi [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Keti VENTURA
+Derslik 302: Veri Odaklı Üretim Planlama Stratejileri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 302: Tedarik Zinciri ve Lojistik İçin Bilgi Sistemleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Haluk SOYUER
+Derslik 205: Uluslararası Finansman [Muhasebe ve Finansman İ.Ö. Tezsiz] - Araş. Gör. Dr. Özgür BABACAN
+Derslik 202: İş Analitiğinde Sayısal Yöntemler [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Doç. Dr. İnanç KABASAKAL
+Derslik 204: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] - Doç. Dr. Sema AYDIN
+Derslik 301: Akıllı Karar Modelleri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 108: Kurumsal Koçluk ve Mentorluk [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 101: Hizmet Pazarlaması [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Aykan CANDEMİR
+Derslik 110: Stratejik Pazarlama Yönetimi [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Ayla Özhan DEDEOĞLU
 Derslik 203: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] - Prof. Dr. Türker SUSMUŞ</t>
+  </si>
+  <si>
+    <t>Derslik 205: İşlemler Yönetimi [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Haluk SOYUER
+Derslik 211: Proje Yönetimi [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Doç. Dr. Aydın KOÇAK
+Derslik 201: Yönetim Atölyesi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Hakan ERKAL
+Derslik 303: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] - Prof. Dr. Burak ÇAPRAZ
+Derslik 204: Örgütler ve Yönetim [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. Derya İLİC
+Derslik 110: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] - Prof. Dr. Murat KOCAMAZ
+Derslik 109: Finansal Muhasebe [Muhasebe ve Finansman İ.Ö. Tezsiz] - Prof. Dr. Türker SUSMUŞ</t>
   </si>
   <si>
     <t>Kriter</t>
@@ -722,7 +722,7 @@
         <v>31</v>
       </c>
       <c r="C2">
-        <v>5018</v>
+        <v>4512</v>
       </c>
     </row>
   </sheetData>
